--- a/tests/test_data/LAM_metadata_20200903_JKU.xlsx
+++ b/tests/test_data/LAM_metadata_20200903_JKU.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5775" uniqueCount="2413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5781" uniqueCount="2415">
   <si>
     <t xml:space="preserve">URI</t>
   </si>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">skos:prefLabel@en</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_EDIT</t>
+    <t xml:space="preserve">lamd:class_EDIT</t>
   </si>
   <si>
     <t xml:space="preserve">KEYWORD</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Class or subclass according to CDM.</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_MIS</t>
+    <t xml:space="preserve">lamd:class_MIS</t>
   </si>
   <si>
     <t xml:space="preserve">AU</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">Miscellaneous information</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_ESI</t>
+    <t xml:space="preserve">lamd:class_ESI</t>
   </si>
   <si>
     <t xml:space="preserve">FM</t>
@@ -1101,7 +1101,7 @@
     <t xml:space="preserve">Celex number</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_CLX</t>
+    <t xml:space="preserve">lamd:class_CLX</t>
   </si>
   <si>
     <t xml:space="preserve">DN_CLASS</t>
@@ -3585,7 +3585,7 @@
     <t xml:space="preserve">Classification</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_CLAS</t>
+    <t xml:space="preserve">lamd:class_CLAS</t>
   </si>
   <si>
     <t xml:space="preserve">CT</t>
@@ -6090,7 +6090,7 @@
     <t xml:space="preserve">Dates</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_DPROP</t>
+    <t xml:space="preserve">lamd:class_DPROP</t>
   </si>
   <si>
     <t xml:space="preserve">IF</t>
@@ -11881,7 +11881,7 @@
     <t xml:space="preserve">Legal basis</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_RBD</t>
+    <t xml:space="preserve">lamd:class_RBD</t>
   </si>
   <si>
     <t xml:space="preserve">AMENDMENT</t>
@@ -11997,7 +11997,7 @@
 Earlier related instruments</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_MSEA</t>
+    <t xml:space="preserve">lamd:class_MSEA</t>
   </si>
   <si>
     <t xml:space="preserve">ADDITION</t>
@@ -13221,7 +13221,7 @@
     <t xml:space="preserve">Related documents</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_RD</t>
+    <t xml:space="preserve">lamd:class_RD</t>
   </si>
   <si>
     <t xml:space="preserve">ASSOCIATION</t>
@@ -13294,7 +13294,7 @@
     <t xml:space="preserve">Case law properties</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_CDJ</t>
+    <t xml:space="preserve">lamd:class_CDJ</t>
   </si>
   <si>
     <t xml:space="preserve">DF</t>
@@ -13384,7 +13384,7 @@
     <t xml:space="preserve">Case affecting</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_AJ</t>
+    <t xml:space="preserve">lamd:class_AJ</t>
   </si>
   <si>
     <t xml:space="preserve">FAILURE_REQ</t>
@@ -13519,7 +13519,7 @@
     <t xml:space="preserve">Annotations</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_DANNOT</t>
+    <t xml:space="preserve">lamd:class_DANNOT</t>
   </si>
   <si>
     <t xml:space="preserve">ANN_TOD</t>
@@ -13556,7 +13556,7 @@
     <t xml:space="preserve">2019/06/25: Replacement of fd_370 by at:subdivision should be considered.</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_RANNOT</t>
+    <t xml:space="preserve">lamd:class_RANNOT</t>
   </si>
   <si>
     <t xml:space="preserve">ANN_ART</t>
@@ -13824,7 +13824,7 @@
     <t xml:space="preserve">Publication reference</t>
   </si>
   <si>
-    <t xml:space="preserve">lamd:clas_OTHER_REF</t>
+    <t xml:space="preserve">lamd:class_OTHER_REF</t>
   </si>
   <si>
     <t xml:space="preserve">ELI</t>
@@ -16000,7 +16000,7 @@
     <t xml:space="preserve">Parliamentary questions (European Parliament)</t>
   </si>
   <si>
-    <t xml:space="preserve">1_/AFI/DCL</t>
+    <t xml:space="preserve">1_AFI_DCL</t>
   </si>
   <si>
     <t xml:space="preserve">Declaration annexed to the Final Act</t>
@@ -16017,7 +16017,7 @@
     <t xml:space="preserve">??</t>
   </si>
   <si>
-    <t xml:space="preserve">1_/PRO</t>
+    <t xml:space="preserve">1_PRO</t>
   </si>
   <si>
     <t xml:space="preserve">Protocol</t>
@@ -16029,7 +16029,7 @@
     <t xml:space="preserve">a separate work for each protocol</t>
   </si>
   <si>
-    <t xml:space="preserve">1_/TXT</t>
+    <t xml:space="preserve">1_TXT</t>
   </si>
   <si>
     <t xml:space="preserve">Treaty - full text</t>
@@ -18833,6 +18833,9 @@
     <t xml:space="preserve">lamd:</t>
   </si>
   <si>
+    <t xml:space="preserve">class_classif:</t>
+  </si>
+  <si>
     <t xml:space="preserve">cdm:</t>
   </si>
   <si>
@@ -18846,6 +18849,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://publications.europa.eu/resources/authority/celex/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celex_classif:</t>
   </si>
   <si>
     <t xml:space="preserve">sh:</t>
@@ -19347,7 +19353,7 @@
     <numFmt numFmtId="166" formatCode="[$-809]dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -19572,6 +19578,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -19666,7 +19678,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -19779,6 +19791,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -19876,9 +19892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
+      <xdr:colOff>219600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>669600</xdr:rowOff>
+      <xdr:rowOff>669240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19888,7 +19904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7830360" cy="8163720"/>
+          <a:ext cx="7830000" cy="8163360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19921,9 +19937,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>637200</xdr:colOff>
+      <xdr:colOff>636840</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2037240</xdr:rowOff>
+      <xdr:rowOff>2036880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19933,7 +19949,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10040040" cy="9531360"/>
+          <a:ext cx="10038960" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19971,7 +19987,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>453960</xdr:colOff>
+      <xdr:colOff>453600</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
@@ -19983,7 +19999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17856000" cy="5697360"/>
+          <a:ext cx="17856360" cy="4627440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20025,7 +20041,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+      <selection pane="bottomLeft" activeCell="AJ2" activeCellId="0" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -28055,10 +28071,10 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
@@ -28097,16 +28113,16 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B2)</f>
-        <v>lamd:clas_REF</v>
+        <f aca="false">CONCATENATE("lamd:class_",B2)</f>
+        <v>lamd:class_REF</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>780</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D2)),CONCATENATE("lamd:clas_",D2),""  )</f>
+        <f aca="false">IF(NOT(ISBLANK(D2)),CONCATENATE("lamd:class_",D2),""  )</f>
         <v/>
       </c>
       <c r="E2" s="2" t="n">
@@ -28119,17 +28135,17 @@
         <v>781</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B3)</f>
-        <v>lamd:clas_CLX</v>
+        <f aca="false">CONCATENATE("lamd:class_",B3)</f>
+        <v>lamd:class_CLX</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="C3" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D3)),CONCATENATE("lamd:clas_",D3),""  )</f>
-        <v>lamd:clas_REF</v>
+      <c r="C3" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D3)),CONCATENATE("lamd:class_",D3),""  )</f>
+        <v>lamd:class_REF</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>780</v>
@@ -28141,17 +28157,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B4)</f>
-        <v>lamd:clas_OTHER_REF</v>
+        <f aca="false">CONCATENATE("lamd:class_",B4)</f>
+        <v>lamd:class_OTHER_REF</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="C4" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D4)),CONCATENATE("lamd:clas_",D4),""  )</f>
-        <v>lamd:clas_REF</v>
+      <c r="C4" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D4)),CONCATENATE("lamd:class_",D4),""  )</f>
+        <v>lamd:class_REF</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>780</v>
@@ -28163,16 +28179,16 @@
         <v>784</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B5)</f>
-        <v>lamd:clas_DATE</v>
+        <f aca="false">CONCATENATE("lamd:class_",B5)</f>
+        <v>lamd:class_DATE</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="C5" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D5)),CONCATENATE("lamd:clas_",D5),""  )</f>
+      <c r="C5" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D5)),CONCATENATE("lamd:class_",D5),""  )</f>
         <v/>
       </c>
       <c r="E5" s="0" t="n">
@@ -28185,17 +28201,17 @@
         <v>786</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B6)</f>
-        <v>lamd:clas_DPROP</v>
+        <f aca="false">CONCATENATE("lamd:class_",B6)</f>
+        <v>lamd:class_DPROP</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="C6" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D6)),CONCATENATE("lamd:clas_",D6),""  )</f>
-        <v>lamd:clas_DATE</v>
+      <c r="C6" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D6)),CONCATENATE("lamd:class_",D6),""  )</f>
+        <v>lamd:class_DATE</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>785</v>
@@ -28207,17 +28223,17 @@
         <v>788</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B7)</f>
-        <v>lamd:clas_DANNOT</v>
+        <f aca="false">CONCATENATE("lamd:class_",B7)</f>
+        <v>lamd:class_DANNOT</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="C7" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D7)),CONCATENATE("lamd:clas_",D7),""  )</f>
-        <v>lamd:clas_DATE</v>
+      <c r="C7" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D7)),CONCATENATE("lamd:class_",D7),""  )</f>
+        <v>lamd:class_DATE</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>785</v>
@@ -28229,16 +28245,16 @@
         <v>790</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B8)</f>
-        <v>lamd:clas_CLAS</v>
+        <f aca="false">CONCATENATE("lamd:class_",B8)</f>
+        <v>lamd:class_CLAS</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="C8" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D8)),CONCATENATE("lamd:clas_",D8),""  )</f>
+      <c r="C8" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D8)),CONCATENATE("lamd:class_",D8),""  )</f>
         <v/>
       </c>
       <c r="E8" s="0" t="n">
@@ -28251,16 +28267,16 @@
         <v>793</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B9)</f>
-        <v>lamd:clas_ESI</v>
+        <f aca="false">CONCATENATE("lamd:class_",B9)</f>
+        <v>lamd:class_ESI</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="C9" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D9)),CONCATENATE("lamd:clas_",D9),""  )</f>
+      <c r="C9" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D9)),CONCATENATE("lamd:class_",D9),""  )</f>
         <v/>
       </c>
       <c r="E9" s="0" t="n">
@@ -28273,17 +28289,17 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B10)</f>
-        <v>lamd:clas_RBD</v>
+        <f aca="false">CONCATENATE("lamd:class_",B10)</f>
+        <v>lamd:class_RBD</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="C10" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D10)),CONCATENATE("lamd:clas_",D10),""  )</f>
-        <v>lamd:clas_RBD</v>
+      <c r="C10" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D10)),CONCATENATE("lamd:class_",D10),""  )</f>
+        <v>lamd:class_RBD</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>797</v>
@@ -28298,17 +28314,17 @@
         <v>799</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B11)</f>
-        <v>lamd:clas_MSEA</v>
+        <f aca="false">CONCATENATE("lamd:class_",B11)</f>
+        <v>lamd:class_MSEA</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="C11" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D11)),CONCATENATE("lamd:clas_",D11),""  )</f>
-        <v>lamd:clas_RBD</v>
+      <c r="C11" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D11)),CONCATENATE("lamd:class_",D11),""  )</f>
+        <v>lamd:class_RBD</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>797</v>
@@ -28320,17 +28336,17 @@
         <v>801</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B12)</f>
-        <v>lamd:clas_RD</v>
+        <f aca="false">CONCATENATE("lamd:class_",B12)</f>
+        <v>lamd:class_RD</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="C12" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D12)),CONCATENATE("lamd:clas_",D12),""  )</f>
-        <v>lamd:clas_RBD</v>
+      <c r="C12" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D12)),CONCATENATE("lamd:class_",D12),""  )</f>
+        <v>lamd:class_RBD</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>797</v>
@@ -28342,17 +28358,17 @@
         <v>590</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B13)</f>
-        <v>lamd:clas_AJ</v>
+        <f aca="false">CONCATENATE("lamd:class_",B13)</f>
+        <v>lamd:class_AJ</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="C13" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D13)),CONCATENATE("lamd:clas_",D13),""  )</f>
-        <v>lamd:clas_RBD</v>
+      <c r="C13" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D13)),CONCATENATE("lamd:class_",D13),""  )</f>
+        <v>lamd:class_RBD</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>797</v>
@@ -28364,17 +28380,17 @@
         <v>635</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B14)</f>
-        <v>lamd:clas_RANNOT</v>
+        <f aca="false">CONCATENATE("lamd:class_",B14)</f>
+        <v>lamd:class_RANNOT</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="C14" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D14)),CONCATENATE("lamd:clas_",D14),""  )</f>
-        <v>lamd:clas_RBD</v>
+      <c r="C14" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D14)),CONCATENATE("lamd:class_",D14),""  )</f>
+        <v>lamd:class_RBD</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>797</v>
@@ -28386,16 +28402,16 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B15)</f>
-        <v>lamd:clas_MIS</v>
+        <f aca="false">CONCATENATE("lamd:class_",B15)</f>
+        <v>lamd:class_MIS</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="C15" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D15)),CONCATENATE("lamd:clas_",D15),""  )</f>
+      <c r="C15" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D15)),CONCATENATE("lamd:class_",D15),""  )</f>
         <v/>
       </c>
       <c r="E15" s="0" t="n">
@@ -28408,16 +28424,16 @@
         <v>807</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B16)</f>
-        <v>lamd:clas_CDJ</v>
+        <f aca="false">CONCATENATE("lamd:class_",B16)</f>
+        <v>lamd:class_CDJ</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="C16" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D16)),CONCATENATE("lamd:clas_",D16),""  )</f>
+      <c r="C16" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D16)),CONCATENATE("lamd:class_",D16),""  )</f>
         <v/>
       </c>
       <c r="E16" s="0" t="n">
@@ -28430,16 +28446,16 @@
         <v>810</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="str">
-        <f aca="false">CONCATENATE("lamd:clas_",B17)</f>
-        <v>lamd:clas_EDIT</v>
+        <f aca="false">CONCATENATE("lamd:class_",B17)</f>
+        <v>lamd:class_EDIT</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="C17" s="0" t="str">
-        <f aca="false">IF(NOT(ISBLANK(D17)),CONCATENATE("lamd:clas_",D17),""  )</f>
+      <c r="C17" s="2" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D17)),CONCATENATE("lamd:class_",D17),""  )</f>
         <v/>
       </c>
       <c r="E17" s="0" t="n">
@@ -28568,9 +28584,9 @@
   <dimension ref="A1:CX52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="CW3" activeCellId="0" sqref="CW3"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -28978,7 +28994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="180.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
         <v>821</v>
       </c>
@@ -29113,11 +29129,11 @@
         <v>840</v>
       </c>
       <c r="CX2" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW2)),CONCATENATE("lamd:clc_",CW2),CONCATENATE("lamd:clc_",CV2)  )</f>
-        <v>lamd:clc_COM</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="180.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW2)),CONCATENATE("lamd:class_",CW2),CONCATENATE("lamd:class_",CV2)  )</f>
+        <v>lamd:class_COM</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
         <v>841</v>
       </c>
@@ -29252,11 +29268,11 @@
         <v>840</v>
       </c>
       <c r="CX3" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW3)),CONCATENATE("lamd:clc_",CW3),CONCATENATE("lamd:clc_",CV3)  )</f>
-        <v>lamd:clc_COM</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="180.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW3)),CONCATENATE("lamd:class_",CW3),CONCATENATE("lamd:class_",CV3)  )</f>
+        <v>lamd:class_COM</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
         <v>847</v>
       </c>
@@ -29391,11 +29407,11 @@
         <v>840</v>
       </c>
       <c r="CX4" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW4)),CONCATENATE("lamd:clc_",CW4),CONCATENATE("lamd:clc_",CV4)  )</f>
-        <v>lamd:clc_COM</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="180.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW4)),CONCATENATE("lamd:class_",CW4),CONCATENATE("lamd:class_",CV4)  )</f>
+        <v>lamd:class_COM</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
         <v>855</v>
       </c>
@@ -29531,8 +29547,8 @@
         <v>840</v>
       </c>
       <c r="CX5" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW5)),CONCATENATE("lamd:clc_",CW5),CONCATENATE("lamd:clc_",CV5)  )</f>
-        <v>lamd:clc_COM</v>
+        <f aca="false">IF(NOT(ISBLANK(CW5)),CONCATENATE("lamd:class_",CW5),CONCATENATE("lamd:class_",CV5)  )</f>
+        <v>lamd:class_COM</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29650,11 +29666,11 @@
         <v>874</v>
       </c>
       <c r="CX6" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW6)),CONCATENATE("lamd:clc_",CW6),CONCATENATE("lamd:clc_",CV6)  )</f>
-        <v>lamd:clc_EESC</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="248.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW6)),CONCATENATE("lamd:class_",CW6),CONCATENATE("lamd:class_",CV6)  )</f>
+        <v>lamd:class_EESC</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
         <v>875</v>
       </c>
@@ -29778,8 +29794,8 @@
         <v>874</v>
       </c>
       <c r="CX7" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW7)),CONCATENATE("lamd:clc_",CW7),CONCATENATE("lamd:clc_",CV7)  )</f>
-        <v>lamd:clc_EESC</v>
+        <f aca="false">IF(NOT(ISBLANK(CW7)),CONCATENATE("lamd:class_",CW7),CONCATENATE("lamd:class_",CV7)  )</f>
+        <v>lamd:class_EESC</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29903,8 +29919,8 @@
         <v>874</v>
       </c>
       <c r="CX8" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW8)),CONCATENATE("lamd:clc_",CW8),CONCATENATE("lamd:clc_",CV8)  )</f>
-        <v>lamd:clc_EESC</v>
+        <f aca="false">IF(NOT(ISBLANK(CW8)),CONCATENATE("lamd:class_",CW8),CONCATENATE("lamd:class_",CV8)  )</f>
+        <v>lamd:class_EESC</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30022,8 +30038,8 @@
         <v>874</v>
       </c>
       <c r="CX9" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW9)),CONCATENATE("lamd:clc_",CW9),CONCATENATE("lamd:clc_",CV9)  )</f>
-        <v>lamd:clc_EESC</v>
+        <f aca="false">IF(NOT(ISBLANK(CW9)),CONCATENATE("lamd:class_",CW9),CONCATENATE("lamd:class_",CV9)  )</f>
+        <v>lamd:class_EESC</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30141,11 +30157,11 @@
         <v>874</v>
       </c>
       <c r="CX10" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW10)),CONCATENATE("lamd:clc_",CW10),CONCATENATE("lamd:clc_",CV10)  )</f>
-        <v>lamd:clc_EESC</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW10)),CONCATENATE("lamd:class_",CW10),CONCATENATE("lamd:class_",CV10)  )</f>
+        <v>lamd:class_EESC</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
         <v>904</v>
       </c>
@@ -30230,11 +30246,11 @@
         <v>914</v>
       </c>
       <c r="CX11" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW11)),CONCATENATE("lamd:clc_",CW11),CONCATENATE("lamd:clc_",CV11)  )</f>
-        <v>lamd:clc_CONSIL</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="203.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW11)),CONCATENATE("lamd:class_",CW11),CONCATENATE("lamd:class_",CV11)  )</f>
+        <v>lamd:class_CONSIL</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
         <v>915</v>
       </c>
@@ -30343,11 +30359,11 @@
         <v>840</v>
       </c>
       <c r="CX12" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW12)),CONCATENATE("lamd:clc_",CW12),CONCATENATE("lamd:clc_",CV12)  )</f>
-        <v>lamd:clc_COM</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="203.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW12)),CONCATENATE("lamd:class_",CW12),CONCATENATE("lamd:class_",CV12)  )</f>
+        <v>lamd:class_COM</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
         <v>928</v>
       </c>
@@ -30453,11 +30469,11 @@
         <v>840</v>
       </c>
       <c r="CX13" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW13)),CONCATENATE("lamd:clc_",CW13),CONCATENATE("lamd:clc_",CV13)  )</f>
-        <v>lamd:clc_COM</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="203.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW13)),CONCATENATE("lamd:class_",CW13),CONCATENATE("lamd:class_",CV13)  )</f>
+        <v>lamd:class_COM</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
         <v>934</v>
       </c>
@@ -30570,11 +30586,11 @@
         <v>840</v>
       </c>
       <c r="CX14" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW14)),CONCATENATE("lamd:clc_",CW14),CONCATENATE("lamd:clc_",CV14)  )</f>
-        <v>lamd:clc_COM</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="203.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW14)),CONCATENATE("lamd:class_",CW14),CONCATENATE("lamd:class_",CV14)  )</f>
+        <v>lamd:class_COM</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
         <v>941</v>
       </c>
@@ -30677,11 +30693,11 @@
         <v>884</v>
       </c>
       <c r="CX15" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW15)),CONCATENATE("lamd:clc_",CW15),CONCATENATE("lamd:clc_",CV15)  )</f>
-        <v>lamd:clc_</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="203.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW15)),CONCATENATE("lamd:class_",CW15),CONCATENATE("lamd:class_",CV15)  )</f>
+        <v>lamd:class_</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
         <v>949</v>
       </c>
@@ -30787,11 +30803,11 @@
         <v>840</v>
       </c>
       <c r="CX16" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW16)),CONCATENATE("lamd:clc_",CW16),CONCATENATE("lamd:clc_",CV16)  )</f>
-        <v>lamd:clc_COM</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="203.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW16)),CONCATENATE("lamd:class_",CW16),CONCATENATE("lamd:class_",CV16)  )</f>
+        <v>lamd:class_COM</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
         <v>955</v>
       </c>
@@ -30904,11 +30920,11 @@
         <v>840</v>
       </c>
       <c r="CX17" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW17)),CONCATENATE("lamd:clc_",CW17),CONCATENATE("lamd:clc_",CV17)  )</f>
-        <v>lamd:clc_COM</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW17)),CONCATENATE("lamd:class_",CW17),CONCATENATE("lamd:class_",CV17)  )</f>
+        <v>lamd:class_COM</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
         <v>962</v>
       </c>
@@ -30990,11 +31006,11 @@
         <v>973</v>
       </c>
       <c r="CX18" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW18)),CONCATENATE("lamd:clc_",CW18),CONCATENATE("lamd:clc_",CV18)  )</f>
-        <v>lamd:clc_CASE</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW18)),CONCATENATE("lamd:class_",CW18),CONCATENATE("lamd:class_",CV18)  )</f>
+        <v>lamd:class_CASE</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
         <v>974</v>
       </c>
@@ -31076,11 +31092,11 @@
         <v>973</v>
       </c>
       <c r="CX19" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW19)),CONCATENATE("lamd:clc_",CW19),CONCATENATE("lamd:clc_",CV19)  )</f>
-        <v>lamd:clc_CASE</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW19)),CONCATENATE("lamd:class_",CW19),CONCATENATE("lamd:class_",CV19)  )</f>
+        <v>lamd:class_CASE</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
         <v>981</v>
       </c>
@@ -31234,11 +31250,11 @@
         <v>996</v>
       </c>
       <c r="CX20" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW20)),CONCATENATE("lamd:clc_",CW20),CONCATENATE("lamd:clc_",CV20)  )</f>
-        <v>lamd:clc_AGREE</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW20)),CONCATENATE("lamd:class_",CW20),CONCATENATE("lamd:class_",CV20)  )</f>
+        <v>lamd:class_AGREE</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
         <v>997</v>
       </c>
@@ -31317,11 +31333,11 @@
         <v>840</v>
       </c>
       <c r="CX21" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW21)),CONCATENATE("lamd:clc_",CW21),CONCATENATE("lamd:clc_",CV21)  )</f>
-        <v>lamd:clc_COM</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW21)),CONCATENATE("lamd:class_",CW21),CONCATENATE("lamd:class_",CV21)  )</f>
+        <v>lamd:class_COM</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="s">
         <v>1009</v>
       </c>
@@ -31474,11 +31490,11 @@
         <v>1023</v>
       </c>
       <c r="CX22" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW22)),CONCATENATE("lamd:clc_",CW22),CONCATENATE("lamd:clc_",CV22)  )</f>
-        <v>lamd:clc_STATEAID</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW22)),CONCATENATE("lamd:class_",CW22),CONCATENATE("lamd:class_",CV22)  )</f>
+        <v>lamd:class_STATEAID</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
         <v>1024</v>
       </c>
@@ -31627,11 +31643,11 @@
         <v>1037</v>
       </c>
       <c r="CX23" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW23)),CONCATENATE("lamd:clc_",CW23),CONCATENATE("lamd:clc_",CV23)  )</f>
-        <v>lamd:clc_EFTA</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW23)),CONCATENATE("lamd:class_",CW23),CONCATENATE("lamd:class_",CV23)  )</f>
+        <v>lamd:class_EFTA</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
         <v>1038</v>
       </c>
@@ -31781,11 +31797,11 @@
         <v>1037</v>
       </c>
       <c r="CX24" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW24)),CONCATENATE("lamd:clc_",CW24),CONCATENATE("lamd:clc_",CV24)  )</f>
-        <v>lamd:clc_EFTA</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW24)),CONCATENATE("lamd:class_",CW24),CONCATENATE("lamd:class_",CV24)  )</f>
+        <v>lamd:class_EFTA</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
         <v>1045</v>
       </c>
@@ -31964,11 +31980,11 @@
         <v>1037</v>
       </c>
       <c r="CX25" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW25)),CONCATENATE("lamd:clc_",CW25),CONCATENATE("lamd:clc_",CV25)  )</f>
-        <v>lamd:clc_EFTA</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW25)),CONCATENATE("lamd:class_",CW25),CONCATENATE("lamd:class_",CV25)  )</f>
+        <v>lamd:class_EFTA</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
         <v>1056</v>
       </c>
@@ -32116,8 +32132,8 @@
         <v>1037</v>
       </c>
       <c r="CX26" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW26)),CONCATENATE("lamd:clc_",CW26),CONCATENATE("lamd:clc_",CV26)  )</f>
-        <v>lamd:clc_EFTA</v>
+        <f aca="false">IF(NOT(ISBLANK(CW26)),CONCATENATE("lamd:class_",CW26),CONCATENATE("lamd:class_",CV26)  )</f>
+        <v>lamd:class_EFTA</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32270,8 +32286,8 @@
         <v>1037</v>
       </c>
       <c r="CX27" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW27)),CONCATENATE("lamd:clc_",CW27),CONCATENATE("lamd:clc_",CV27)  )</f>
-        <v>lamd:clc_EFTA</v>
+        <f aca="false">IF(NOT(ISBLANK(CW27)),CONCATENATE("lamd:class_",CW27),CONCATENATE("lamd:class_",CV27)  )</f>
+        <v>lamd:class_EFTA</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32435,11 +32451,11 @@
         <v>1037</v>
       </c>
       <c r="CX28" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW28)),CONCATENATE("lamd:clc_",CW28),CONCATENATE("lamd:clc_",CV28)  )</f>
-        <v>lamd:clc_EFTA</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW28)),CONCATENATE("lamd:class_",CW28),CONCATENATE("lamd:class_",CV28)  )</f>
+        <v>lamd:class_EFTA</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
         <v>1085</v>
       </c>
@@ -32591,11 +32607,11 @@
         <v>1037</v>
       </c>
       <c r="CX29" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW29)),CONCATENATE("lamd:clc_",CW29),CONCATENATE("lamd:clc_",CV29)  )</f>
-        <v>lamd:clc_EFTA</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW29)),CONCATENATE("lamd:class_",CW29),CONCATENATE("lamd:class_",CV29)  )</f>
+        <v>lamd:class_EFTA</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
         <v>1094</v>
       </c>
@@ -32746,11 +32762,11 @@
         <v>1037</v>
       </c>
       <c r="CX30" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW30)),CONCATENATE("lamd:clc_",CW30),CONCATENATE("lamd:clc_",CV30)  )</f>
-        <v>lamd:clc_EFTA</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW30)),CONCATENATE("lamd:class_",CW30),CONCATENATE("lamd:class_",CV30)  )</f>
+        <v>lamd:class_EFTA</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="s">
         <v>1105</v>
       </c>
@@ -32909,11 +32925,11 @@
         <v>1118</v>
       </c>
       <c r="CX31" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW31)),CONCATENATE("lamd:clc_",CW31),CONCATENATE("lamd:clc_",CV31)  )</f>
-        <v>lamd:clc_COTHER</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW31)),CONCATENATE("lamd:class_",CW31),CONCATENATE("lamd:class_",CV31)  )</f>
+        <v>lamd:class_COTHER</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="s">
         <v>1119</v>
       </c>
@@ -33066,11 +33082,11 @@
         <v>1023</v>
       </c>
       <c r="CX32" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW32)),CONCATENATE("lamd:clc_",CW32),CONCATENATE("lamd:clc_",CV32)  )</f>
-        <v>lamd:clc_STATEAID</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW32)),CONCATENATE("lamd:class_",CW32),CONCATENATE("lamd:class_",CV32)  )</f>
+        <v>lamd:class_STATEAID</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="s">
         <v>1131</v>
       </c>
@@ -33230,11 +33246,11 @@
         <v>1148</v>
       </c>
       <c r="CX33" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW33)),CONCATENATE("lamd:clc_",CW33),CONCATENATE("lamd:clc_",CV33)  )</f>
-        <v>lamd:clc_3OTHER</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW33)),CONCATENATE("lamd:class_",CW33),CONCATENATE("lamd:class_",CV33)  )</f>
+        <v>lamd:class_3OTHER</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="27" t="s">
         <v>1149</v>
       </c>
@@ -33405,11 +33421,11 @@
         <v>914</v>
       </c>
       <c r="CX34" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW34)),CONCATENATE("lamd:clc_",CW34),CONCATENATE("lamd:clc_",CV34)  )</f>
-        <v>lamd:clc_CONSIL</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW34)),CONCATENATE("lamd:class_",CW34),CONCATENATE("lamd:class_",CV34)  )</f>
+        <v>lamd:class_CONSIL</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="s">
         <v>1159</v>
       </c>
@@ -33580,11 +33596,11 @@
         <v>914</v>
       </c>
       <c r="CX35" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW35)),CONCATENATE("lamd:clc_",CW35),CONCATENATE("lamd:clc_",CV35)  )</f>
-        <v>lamd:clc_CONSIL</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW35)),CONCATENATE("lamd:class_",CW35),CONCATENATE("lamd:class_",CV35)  )</f>
+        <v>lamd:class_CONSIL</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="27" t="s">
         <v>1165</v>
       </c>
@@ -33755,11 +33771,11 @@
         <v>1176</v>
       </c>
       <c r="CX36" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW36)),CONCATENATE("lamd:clc_",CW36),CONCATENATE("lamd:clc_",CV36)  )</f>
-        <v>lamd:clc_5OTHER</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW36)),CONCATENATE("lamd:class_",CW36),CONCATENATE("lamd:class_",CV36)  )</f>
+        <v>lamd:class_5OTHER</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
         <v>1177</v>
       </c>
@@ -33924,11 +33940,11 @@
         <v>1037</v>
       </c>
       <c r="CX37" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW37)),CONCATENATE("lamd:clc_",CW37),CONCATENATE("lamd:clc_",CV37)  )</f>
-        <v>lamd:clc_EFTA</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW37)),CONCATENATE("lamd:class_",CW37),CONCATENATE("lamd:class_",CV37)  )</f>
+        <v>lamd:class_EFTA</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
         <v>1189</v>
       </c>
@@ -34083,11 +34099,11 @@
         <v>1023</v>
       </c>
       <c r="CX38" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW38)),CONCATENATE("lamd:clc_",CW38),CONCATENATE("lamd:clc_",CV38)  )</f>
-        <v>lamd:clc_STATEAID</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW38)),CONCATENATE("lamd:class_",CW38),CONCATENATE("lamd:class_",CV38)  )</f>
+        <v>lamd:class_STATEAID</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="27" t="s">
         <v>1198</v>
       </c>
@@ -34265,11 +34281,11 @@
         <v>1208</v>
       </c>
       <c r="CX39" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW39)),CONCATENATE("lamd:clc_",CW39),CONCATENATE("lamd:clc_",CV39)  )</f>
-        <v>lamd:clc_CRDS</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="136.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW39)),CONCATENATE("lamd:class_",CW39),CONCATENATE("lamd:class_",CV39)  )</f>
+        <v>lamd:class_CRDS</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="27" t="s">
         <v>1209</v>
       </c>
@@ -34446,11 +34462,11 @@
         <v>1208</v>
       </c>
       <c r="CX40" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW40)),CONCATENATE("lamd:clc_",CW40),CONCATENATE("lamd:clc_",CV40)  )</f>
-        <v>lamd:clc_CRDS</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW40)),CONCATENATE("lamd:class_",CW40),CONCATENATE("lamd:class_",CV40)  )</f>
+        <v>lamd:class_CRDS</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="27" t="s">
         <v>1217</v>
       </c>
@@ -34628,11 +34644,11 @@
         <v>1208</v>
       </c>
       <c r="CX41" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW41)),CONCATENATE("lamd:clc_",CW41),CONCATENATE("lamd:clc_",CV41)  )</f>
-        <v>lamd:clc_CRDS</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW41)),CONCATENATE("lamd:class_",CW41),CONCATENATE("lamd:class_",CV41)  )</f>
+        <v>lamd:class_CRDS</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="27" t="s">
         <v>1223</v>
       </c>
@@ -34796,11 +34812,11 @@
         <v>1208</v>
       </c>
       <c r="CX42" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW42)),CONCATENATE("lamd:clc_",CW42),CONCATENATE("lamd:clc_",CV42)  )</f>
-        <v>lamd:clc_CRDS</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW42)),CONCATENATE("lamd:class_",CW42),CONCATENATE("lamd:class_",CV42)  )</f>
+        <v>lamd:class_CRDS</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="27" t="s">
         <v>1232</v>
       </c>
@@ -34961,11 +34977,11 @@
         <v>1208</v>
       </c>
       <c r="CX43" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW43)),CONCATENATE("lamd:clc_",CW43),CONCATENATE("lamd:clc_",CV43)  )</f>
-        <v>lamd:clc_CRDS</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW43)),CONCATENATE("lamd:class_",CW43),CONCATENATE("lamd:class_",CV43)  )</f>
+        <v>lamd:class_CRDS</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="27" t="s">
         <v>1238</v>
       </c>
@@ -35139,11 +35155,11 @@
         <v>1251</v>
       </c>
       <c r="CX44" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW44)),CONCATENATE("lamd:clc_",CW44),CONCATENATE("lamd:clc_",CV44)  )</f>
-        <v>lamd:clc_NLEGIS</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW44)),CONCATENATE("lamd:class_",CW44),CONCATENATE("lamd:class_",CV44)  )</f>
+        <v>lamd:class_NLEGIS</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="27" t="s">
         <v>1252</v>
       </c>
@@ -35314,11 +35330,11 @@
         <v>1251</v>
       </c>
       <c r="CX45" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW45)),CONCATENATE("lamd:clc_",CW45),CONCATENATE("lamd:clc_",CV45)  )</f>
-        <v>lamd:clc_NLEGIS</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="124.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW45)),CONCATENATE("lamd:class_",CW45),CONCATENATE("lamd:class_",CV45)  )</f>
+        <v>lamd:class_NLEGIS</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="27" t="s">
         <v>1265</v>
       </c>
@@ -35475,8 +35491,8 @@
         <v>1023</v>
       </c>
       <c r="CX46" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW46)),CONCATENATE("lamd:clc_",CW46),CONCATENATE("lamd:clc_",CV46)  )</f>
-        <v>lamd:clc_STATEAID</v>
+        <f aca="false">IF(NOT(ISBLANK(CW46)),CONCATENATE("lamd:class_",CW46),CONCATENATE("lamd:class_",CV46)  )</f>
+        <v>lamd:class_STATEAID</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35634,11 +35650,11 @@
         <v>1023</v>
       </c>
       <c r="CX47" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW47)),CONCATENATE("lamd:clc_",CW47),CONCATENATE("lamd:clc_",CV47)  )</f>
-        <v>lamd:clc_STATEAID</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW47)),CONCATENATE("lamd:class_",CW47),CONCATENATE("lamd:class_",CV47)  )</f>
+        <v>lamd:class_STATEAID</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="27" t="s">
         <v>1281</v>
       </c>
@@ -35834,11 +35850,11 @@
         <v>996</v>
       </c>
       <c r="CX48" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW48)),CONCATENATE("lamd:clc_",CW48),CONCATENATE("lamd:clc_",CV48)  )</f>
-        <v>lamd:clc_AGREE</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW48)),CONCATENATE("lamd:class_",CW48),CONCATENATE("lamd:class_",CV48)  )</f>
+        <v>lamd:class_AGREE</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="27" t="s">
         <v>1292</v>
       </c>
@@ -36037,11 +36053,11 @@
         <v>996</v>
       </c>
       <c r="CX49" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW49)),CONCATENATE("lamd:clc_",CW49),CONCATENATE("lamd:clc_",CV49)  )</f>
-        <v>lamd:clc_AGREE</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW49)),CONCATENATE("lamd:class_",CW49),CONCATENATE("lamd:class_",CV49)  )</f>
+        <v>lamd:class_AGREE</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="27" t="s">
         <v>1301</v>
       </c>
@@ -36240,11 +36256,11 @@
         <v>996</v>
       </c>
       <c r="CX50" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW50)),CONCATENATE("lamd:clc_",CW50),CONCATENATE("lamd:clc_",CV50)  )</f>
-        <v>lamd:clc_AGREE</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW50)),CONCATENATE("lamd:class_",CW50),CONCATENATE("lamd:class_",CV50)  )</f>
+        <v>lamd:class_AGREE</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="27" t="s">
         <v>1308</v>
       </c>
@@ -36397,11 +36413,11 @@
         <v>1318</v>
       </c>
       <c r="CX51" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW51)),CONCATENATE("lamd:clc_",CW51),CONCATENATE("lamd:clc_",CV51)  )</f>
-        <v>lamd:clc_MA</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(NOT(ISBLANK(CW51)),CONCATENATE("lamd:class_",CW51),CONCATENATE("lamd:class_",CV51)  )</f>
+        <v>lamd:class_MA</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="27" t="s">
         <v>1319</v>
       </c>
@@ -36555,8 +36571,8 @@
         <v>1318</v>
       </c>
       <c r="CX52" s="23" t="str">
-        <f aca="false">IF(NOT(ISBLANK(CW52)),CONCATENATE("lamd:clc_",CW52),CONCATENATE("lamd:clc_",CV52)  )</f>
-        <v>lamd:clc_MA</v>
+        <f aca="false">IF(NOT(ISBLANK(CW52)),CONCATENATE("lamd:class_",CW52),CONCATENATE("lamd:class_",CV52)  )</f>
+        <v>lamd:class_MA</v>
       </c>
     </row>
   </sheetData>
@@ -36577,22 +36593,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="58.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -36603,438 +36621,525 @@
         <v>769</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B2)</f>
-        <v>class_classif:clc_TREATY</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B2)</f>
+        <v>class_classif:class_TREATY</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="n">
+      <c r="C2" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D2)),CONCATENATE("class_classif:class_",D2),""  )</f>
+        <v/>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>1327</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B3)</f>
-        <v>class_classif:clc_AGREE</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B3)</f>
+        <v>class_classif:class_AGREE</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="n">
+      <c r="C3" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D3)),CONCATENATE("class_classif:class_",D3),""  )</f>
+        <v/>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>1329</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B4)</f>
-        <v>class_classif:clc_LEGAL</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B4)</f>
+        <v>class_classif:class_LEGAL</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="n">
+      <c r="C4" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D4)),CONCATENATE("class_classif:class_",D4),""  )</f>
+        <v/>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>1331</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B5)</f>
-        <v>class_classif:clc_LEGIS</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B5)</f>
+        <v>class_classif:class_LEGIS</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D5)),CONCATENATE("class_classif:class_",D5),""  )</f>
+        <v>class_classif:class_LEGAL</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B6)</f>
-        <v>class_classif:clc_NLEGIS</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B6)</f>
+        <v>class_classif:class_NLEGIS</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D6)),CONCATENATE("class_classif:class_",D6),""  )</f>
+        <v>class_classif:class_LEGAL</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B7)</f>
-        <v>class_classif:clc_3OTHER</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B7)</f>
+        <v>class_classif:class_3OTHER</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D7)),CONCATENATE("class_classif:class_",D7),""  )</f>
+        <v>class_classif:class_LEGAL</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>1339</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B8)</f>
-        <v>class_classif:clc_PREPDOC</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B8)</f>
+        <v>class_classif:class_PREPDOC</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="C8" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D8)),CONCATENATE("class_classif:class_",D8),""  )</f>
+        <v/>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>1340</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B9)</f>
-        <v>class_classif:clc_COM</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B9)</f>
+        <v>class_classif:class_COM</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D9)),CONCATENATE("class_classif:class_",D9),""  )</f>
+        <v>class_classif:class_PREPDOC</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>1342</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B10)</f>
-        <v>class_classif:clc_CONSIL</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B10)</f>
+        <v>class_classif:class_CONSIL</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>914</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D10)),CONCATENATE("class_classif:class_",D10),""  )</f>
+        <v>class_classif:class_PREPDOC</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>1344</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B11)</f>
-        <v>class_classif:clc_EP</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B11)</f>
+        <v>class_classif:class_EP</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>1346</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D11)),CONCATENATE("class_classif:class_",D11),""  )</f>
+        <v>class_classif:class_PREPDOC</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B12)</f>
-        <v>class_classif:clc_EESC</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B12)</f>
+        <v>class_classif:class_EESC</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D12)),CONCATENATE("class_classif:class_",D12),""  )</f>
+        <v>class_classif:class_PREPDOC</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B13)</f>
-        <v>class_classif:clc_COR</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B13)</f>
+        <v>class_classif:class_COR</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>1351</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D13)),CONCATENATE("class_classif:class_",D13),""  )</f>
+        <v>class_classif:class_PREPDOC</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B14)</f>
-        <v>class_classif:clc_ECB</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B14)</f>
+        <v>class_classif:class_ECB</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>1354</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D14)),CONCATENATE("class_classif:class_",D14),""  )</f>
+        <v>class_classif:class_PREPDOC</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B15)</f>
-        <v>class_classif:clc_5OTHER</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B15)</f>
+        <v>class_classif:class_5OTHER</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>1176</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D15)),CONCATENATE("class_classif:class_",D15),""  )</f>
+        <v>class_classif:class_PREPDOC</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B16)</f>
-        <v>class_classif:clc_CASE</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B16)</f>
+        <v>class_classif:class_CASE</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>973</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="C16" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D16)),CONCATENATE("class_classif:class_",D16),""  )</f>
+        <v/>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B17)</f>
-        <v>class_classif:clc_EFTA</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B17)</f>
+        <v>class_classif:class_EFTA</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>1037</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="C17" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D17)),CONCATENATE("class_classif:class_",D17),""  )</f>
+        <v/>
+      </c>
+      <c r="E17" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B18)</f>
-        <v>class_classif:clc_CDOC</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B18)</f>
+        <v>class_classif:class_CDOC</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="C18" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D18)),CONCATENATE("class_classif:class_",D18),""  )</f>
+        <v/>
+      </c>
+      <c r="E18" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B19)</f>
-        <v>class_classif:clc_STATEAID</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B19)</f>
+        <v>class_classif:class_STATEAID</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>1023</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D19)),CONCATENATE("class_classif:class_",D19),""  )</f>
+        <v>class_classif:class_CDOC</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B20)</f>
-        <v>class_classif:clc_CRDS</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B20)</f>
+        <v>class_classif:class_CRDS</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>1208</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D20)),CONCATENATE("class_classif:class_",D20),""  )</f>
+        <v>class_classif:class_CDOC</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B21)</f>
-        <v>class_classif:clc_MA</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B21)</f>
+        <v>class_classif:class_MA</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>1318</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D21)),CONCATENATE("class_classif:class_",D21),""  )</f>
+        <v>class_classif:class_CDOC</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
-        <f aca="false">CONCATENATE("class_classif:clc_",B22)</f>
-        <v>class_classif:clc_COTHER</v>
+        <f aca="false">CONCATENATE("class_classif:class_",B22)</f>
+        <v>class_classif:class_COTHER</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D22)),CONCATENATE("class_classif:class_",D22),""  )</f>
+        <v>class_classif:class_CDOC</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -37059,7 +37164,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E282" activeCellId="0" sqref="E282"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -37401,7 +37506,7 @@
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="str">
         <f aca="false">CONCATENATE("celexd:c_",B12)</f>
-        <v>celexd:c_1_/AFI/DCL</v>
+        <v>celexd:c_1_AFI_DCL</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1382</v>
@@ -37439,7 +37544,7 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="str">
         <f aca="false">CONCATENATE("celexd:c_",B13)</f>
-        <v>celexd:c_1_/PRO</v>
+        <v>celexd:c_1_PRO</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1387</v>
@@ -37477,7 +37582,7 @@
     <row r="14" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="str">
         <f aca="false">CONCATENATE("celexd:c_",B14)</f>
-        <v>celexd:c_1_/TXT</v>
+        <v>celexd:c_1_TXT</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1391</v>
@@ -38576,7 +38681,7 @@
       <c r="E41" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="29" t="s">
         <v>1489</v>
       </c>
       <c r="H41" s="2" t="n">
@@ -46801,7 +46906,7 @@
       <c r="E252" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="F252" s="28" t="s">
+      <c r="F252" s="29" t="s">
         <v>2132</v>
       </c>
       <c r="H252" s="2" t="n">
@@ -47712,437 +47817,538 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="23.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>769</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B2)</f>
-        <v>celex_classif:clc_1</v>
-      </c>
-      <c r="B2" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B2)</f>
+        <v>celex_classif:class_1</v>
+      </c>
+      <c r="B2" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D2)),CONCATENATE("celex_classif:class_",D2),""  )</f>
+        <v/>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B3)</f>
-        <v>celex_classif:clc_2</v>
-      </c>
-      <c r="B3" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B3)</f>
+        <v>celex_classif:class_2</v>
+      </c>
+      <c r="B3" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D3)),CONCATENATE("celex_classif:class_",D3),""  )</f>
+        <v/>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>2194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B4)</f>
-        <v>celex_classif:clc_3</v>
-      </c>
-      <c r="B4" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B4)</f>
+        <v>celex_classif:class_3</v>
+      </c>
+      <c r="B4" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D4)),CONCATENATE("celex_classif:class_",D4),""  )</f>
+        <v/>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>2195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B5)</f>
-        <v>celex_classif:clc_5</v>
-      </c>
-      <c r="B5" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B5)</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="B5" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D5)),CONCATENATE("celex_classif:class_",D5),""  )</f>
+        <v/>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>2196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B6)</f>
-        <v>celex_classif:clc_5</v>
-      </c>
-      <c r="B6" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B6)</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="B6" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D6)),CONCATENATE("celex_classif:class_",D6),""  )</f>
+        <v/>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>2197</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B7)</f>
-        <v>celex_classif:clc_5_CONSIL</v>
-      </c>
-      <c r="B7" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B7)</f>
+        <v>celex_classif:class_5_CONSIL</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>1650</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D7)),CONCATENATE("celex_classif:class_",D7),""  )</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>2198</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B8)</f>
-        <v>celex_classif:clc_5_COM</v>
-      </c>
-      <c r="B8" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B8)</f>
+        <v>celex_classif:class_5_COM</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>1709</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D8)),CONCATENATE("celex_classif:class_",D8),""  )</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>2199</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B9)</f>
-        <v>celex_classif:clc_5_EP</v>
-      </c>
-      <c r="B9" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B9)</f>
+        <v>celex_classif:class_5_EP</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>1663</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D9)),CONCATENATE("celex_classif:class_",D9),""  )</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>2200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B10)</f>
-        <v>celex_classif:clc_5_ECA</v>
-      </c>
-      <c r="B10" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B10)</f>
+        <v>celex_classif:class_5_ECA</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>1617</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D10)),CONCATENATE("celex_classif:class_",D10),""  )</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>2201</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B11)</f>
-        <v>celex_classif:clc_5_ECB</v>
-      </c>
-      <c r="B11" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B11)</f>
+        <v>celex_classif:class_5_ECB</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>5</v>
+      <c r="C11" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D11)),CONCATENATE("celex_classif:class_",D11),""  )</f>
+        <v>celex_classif:class_5</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B12)</f>
-        <v>celex_classif:clc_5_EESC</v>
-      </c>
-      <c r="B12" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B12)</f>
+        <v>celex_classif:class_5_EESC</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>1633</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D12)),CONCATENATE("celex_classif:class_",D12),""  )</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B13)</f>
-        <v>celex_classif:clc_5_COR</v>
-      </c>
-      <c r="B13" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B13)</f>
+        <v>celex_classif:class_5_COR</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>1677</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D13)),CONCATENATE("celex_classif:class_",D13),""  )</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B14)</f>
-        <v>celex_classif:clc_5_ECSC</v>
-      </c>
-      <c r="B14" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B14)</f>
+        <v>celex_classif:class_5_ECSC</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>1657</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D14)),CONCATENATE("celex_classif:class_",D14),""  )</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>2202</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B15)</f>
-        <v>celex_classif:clc_5_OTHER</v>
-      </c>
-      <c r="B15" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B15)</f>
+        <v>celex_classif:class_5_OTHER</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>1685</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D15)),CONCATENATE("celex_classif:class_",D15),""  )</f>
+        <v>celex_classif:class_5</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B16)</f>
-        <v>celex_classif:clc_6</v>
-      </c>
-      <c r="B16" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B16)</f>
+        <v>celex_classif:class_6</v>
+      </c>
+      <c r="B16" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D16)),CONCATENATE("celex_classif:class_",D16),""  )</f>
+        <v/>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>2203</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B17)</f>
-        <v>celex_classif:clc_6_CJ</v>
-      </c>
-      <c r="B17" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B17)</f>
+        <v>celex_classif:class_6_CJ</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>1908</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D17)),CONCATENATE("celex_classif:class_",D17),""  )</f>
+        <v>celex_classif:class_6</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>2204</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B18)</f>
-        <v>celex_classif:clc_6_GCEU</v>
-      </c>
-      <c r="B18" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B18)</f>
+        <v>celex_classif:class_6_GCEU</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>2016</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D18)),CONCATENATE("celex_classif:class_",D18),""  )</f>
+        <v>celex_classif:class_6</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B19)</f>
-        <v>celex_classif:clc_6_CST</v>
-      </c>
-      <c r="B19" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B19)</f>
+        <v>celex_classif:class_6_CST</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>1991</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D19)),CONCATENATE("celex_classif:class_",D19),""  )</f>
+        <v>celex_classif:class_6</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>2206</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B20)</f>
-        <v>celex_classif:clc_7</v>
-      </c>
-      <c r="B20" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B20)</f>
+        <v>celex_classif:class_7</v>
+      </c>
+      <c r="B20" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D20)),CONCATENATE("celex_classif:class_",D20),""  )</f>
+        <v/>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B21)</f>
-        <v>celex_classif:clc_8</v>
-      </c>
-      <c r="B21" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B21)</f>
+        <v>celex_classif:class_8</v>
+      </c>
+      <c r="B21" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D21)),CONCATENATE("celex_classif:class_",D21),""  )</f>
+        <v/>
+      </c>
+      <c r="E21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>2208</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B22)</f>
-        <v>celex_classif:clc_9</v>
-      </c>
-      <c r="B22" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B22)</f>
+        <v>celex_classif:class_9</v>
+      </c>
+      <c r="B22" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="C22" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D22)),CONCATENATE("celex_classif:class_",D22),""  )</f>
+        <v/>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>2209</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B23)</f>
-        <v>celex_classif:clc_E</v>
-      </c>
-      <c r="B23" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B23)</f>
+        <v>celex_classif:class_E</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>1486</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="C23" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D23)),CONCATENATE("celex_classif:class_",D23),""  )</f>
+        <v/>
+      </c>
+      <c r="E23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>2210</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B24)</f>
-        <v>celex_classif:clc_C</v>
-      </c>
-      <c r="B24" s="29" t="s">
+        <f aca="false">CONCATENATE("celex_classif:class_",B24)</f>
+        <v>celex_classif:class_C</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>1464</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="C24" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D24)),CONCATENATE("celex_classif:class_",D24),""  )</f>
+        <v/>
+      </c>
+      <c r="E24" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>2211</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="str">
-        <f aca="false">CONCATENATE("celex_classif:clc_",B25)</f>
-        <v>celex_classif:clc_0</v>
-      </c>
-      <c r="B25" s="29" t="n">
+        <f aca="false">CONCATENATE("celex_classif:class_",B25)</f>
+        <v>celex_classif:class_0</v>
+      </c>
+      <c r="B25" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="C25" s="28" t="str">
+        <f aca="false">IF(NOT(ISBLANK(D25)),CONCATENATE("celex_classif:class_",D25),""  )</f>
+        <v/>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>2212</v>
       </c>
     </row>
@@ -48162,15 +48368,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48306,20 +48513,20 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
         <v>2245</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>2246</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>2247</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>2237</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48327,265 +48534,282 @@
         <v>2248</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>2249</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>2250</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
         <v>2251</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>2252</v>
-      </c>
       <c r="B22" s="0" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>2253</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>2293</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>2294</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>2296</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>2255</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>2306</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>2307</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>2309</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>2310</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B53" s="0" t="s">
         <v>2311</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -48604,11 +48828,11 @@
   </sheetPr>
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A113" activeCellId="0" sqref="A113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.28"/>
@@ -48627,23 +48851,23 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48651,7 +48875,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48659,7 +48883,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48667,7 +48891,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48675,7 +48899,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48683,7 +48907,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48691,7 +48915,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48699,7 +48923,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48707,7 +48931,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48715,7 +48939,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48723,7 +48947,7 @@
         <v>102</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48731,7 +48955,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48739,7 +48963,7 @@
         <v>118</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48747,7 +48971,7 @@
         <v>125</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48755,7 +48979,7 @@
         <v>133</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48763,7 +48987,7 @@
         <v>140</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48771,7 +48995,7 @@
         <v>153</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48779,7 +49003,7 @@
         <v>163</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48787,7 +49011,7 @@
         <v>172</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48795,7 +49019,7 @@
         <v>179</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48803,7 +49027,7 @@
         <v>188</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48811,7 +49035,7 @@
         <v>196</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48819,7 +49043,7 @@
         <v>203</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48827,7 +49051,7 @@
         <v>211</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48835,7 +49059,7 @@
         <v>218</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48843,7 +49067,7 @@
         <v>226</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48851,7 +49075,7 @@
         <v>232</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48859,7 +49083,7 @@
         <v>239</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48867,7 +49091,7 @@
         <v>247</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48875,7 +49099,7 @@
         <v>256</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48883,7 +49107,7 @@
         <v>265</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48891,7 +49115,7 @@
         <v>273</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48899,7 +49123,7 @@
         <v>279</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48907,7 +49131,7 @@
         <v>287</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48915,7 +49139,7 @@
         <v>295</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48923,7 +49147,7 @@
         <v>301</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48931,7 +49155,7 @@
         <v>310</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48939,7 +49163,7 @@
         <v>319</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48947,7 +49171,7 @@
         <v>326</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48955,7 +49179,7 @@
         <v>335</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48963,7 +49187,7 @@
         <v>343</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48971,7 +49195,7 @@
         <v>351</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48979,7 +49203,7 @@
         <v>359</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48987,7 +49211,7 @@
         <v>367</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48995,7 +49219,7 @@
         <v>387</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49003,7 +49227,7 @@
         <v>411</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49011,7 +49235,7 @@
         <v>417</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49019,7 +49243,7 @@
         <v>422</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49027,7 +49251,7 @@
         <v>428</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49035,7 +49259,7 @@
         <v>435</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49043,7 +49267,7 @@
         <v>441</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49051,7 +49275,7 @@
         <v>447</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49059,7 +49283,7 @@
         <v>454</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49067,7 +49291,7 @@
         <v>461</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49075,7 +49299,7 @@
         <v>468</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49083,7 +49307,7 @@
         <v>474</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49091,7 +49315,7 @@
         <v>480</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49099,7 +49323,7 @@
         <v>487</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49107,7 +49331,7 @@
         <v>493</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49115,7 +49339,7 @@
         <v>499</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49123,7 +49347,7 @@
         <v>504</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49131,7 +49355,7 @@
         <v>510</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49139,7 +49363,7 @@
         <v>516</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49147,7 +49371,7 @@
         <v>521</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49155,7 +49379,7 @@
         <v>527</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49163,7 +49387,7 @@
         <v>533</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49171,7 +49395,7 @@
         <v>539</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49179,7 +49403,7 @@
         <v>544</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49187,7 +49411,7 @@
         <v>550</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49195,7 +49419,7 @@
         <v>556</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49203,7 +49427,7 @@
         <v>560</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49211,7 +49435,7 @@
         <v>564</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49219,7 +49443,7 @@
         <v>569</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49227,7 +49451,7 @@
         <v>574</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49235,7 +49459,7 @@
         <v>585</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49243,7 +49467,7 @@
         <v>594</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49251,7 +49475,7 @@
         <v>600</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49259,7 +49483,7 @@
         <v>605</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49267,7 +49491,7 @@
         <v>614</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49275,7 +49499,7 @@
         <v>620</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49283,7 +49507,7 @@
         <v>627</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49291,7 +49515,7 @@
         <v>633</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49299,7 +49523,7 @@
         <v>639</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49307,7 +49531,7 @@
         <v>643</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49315,7 +49539,7 @@
         <v>647</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49323,7 +49547,7 @@
         <v>651</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49331,7 +49555,7 @@
         <v>655</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49339,7 +49563,7 @@
         <v>659</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49347,7 +49571,7 @@
         <v>663</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49475,7 +49699,7 @@
         <v>734</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49483,7 +49707,7 @@
         <v>740</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49491,7 +49715,7 @@
         <v>745</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49499,7 +49723,7 @@
         <v>751</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49507,7 +49731,7 @@
         <v>757</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49515,7 +49739,7 @@
         <v>765</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49523,7 +49747,7 @@
         <v>768</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49531,7 +49755,7 @@
         <v>771</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49539,7 +49763,7 @@
         <v>774</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
   </sheetData>
